--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-11.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-03-11.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G803"/>
+  <dimension ref="A1:G791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18822,180 +18822,116 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B699" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C699" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="D699" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E699" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F699" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G699" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Sunday March 02 2025</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr"/>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr"/>
+      <c r="E699" t="inlineStr"/>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>Personal Income MoMJAN</t>
-        </is>
-      </c>
-      <c r="C700" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="D700" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E700" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F700" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G700" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Monday March 03 2025</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr"/>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr"/>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Personal Spending MoMJAN</t>
-        </is>
-      </c>
-      <c r="C701" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+          <t>S&amp;P Global Manufacturing PMI FinalFEB</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
       <c r="D701" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>51.2</t>
         </is>
       </c>
       <c r="E701" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="F701" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>51.6</t>
         </is>
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvJAN</t>
-        </is>
-      </c>
-      <c r="C702" t="inlineStr">
-        <is>
-          <t>$-153.26B</t>
-        </is>
-      </c>
+          <t>ISM Manufacturing PMIFEB</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr"/>
       <c r="D702" t="inlineStr">
         <is>
-          <t>$-122.01B</t>
+          <t>50.9</t>
         </is>
       </c>
       <c r="E702" t="inlineStr">
         <is>
-          <t>$-114.7B</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="F702" t="inlineStr">
         <is>
-          <t>$ -116.0B</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C703" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>ISM Manufacturing EmploymentFEB</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr"/>
       <c r="D703" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E703" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>50.3</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr"/>
       <c r="F703" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>50.6</t>
         </is>
       </c>
       <c r="G703" t="inlineStr">
@@ -19007,141 +18943,113 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C704" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>Construction Spending MoMJAN</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr"/>
       <c r="D704" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E704" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C705" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>ISM Manufacturing New OrdersFEB</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr"/>
       <c r="D705" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>55.1</t>
         </is>
       </c>
       <c r="E705" t="inlineStr"/>
       <c r="F705" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>55.4</t>
         </is>
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C706" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+          <t>ISM Manufacturing PricesFEB</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr"/>
       <c r="D706" t="inlineStr">
         <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E706" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr"/>
       <c r="F706" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C707" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr"/>
       <c r="D707" t="inlineStr">
         <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E707" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
+          <t>4.195%</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr"/>
       <c r="G707" t="inlineStr">
         <is>
           <t>3</t>
@@ -19151,213 +19059,185 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Chicago PMIFEB</t>
-        </is>
-      </c>
-      <c r="C708" t="inlineStr">
-        <is>
-          <t>45.5</t>
-        </is>
-      </c>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr"/>
       <c r="D708" t="inlineStr">
         <is>
-          <t>39.5</t>
-        </is>
-      </c>
-      <c r="E708" t="inlineStr">
-        <is>
-          <t>40.6</t>
-        </is>
-      </c>
-      <c r="F708" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
+          <t>4.180%</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
       <c r="G708" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>11:35 AM</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C709" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="D709" t="inlineStr">
-        <is>
-          <t>488</t>
-        </is>
-      </c>
+          <t>Fed Musalem Speech</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr"/>
       <c r="E709" t="inlineStr"/>
       <c r="F709" t="inlineStr"/>
       <c r="G709" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C710" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="D710" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
+          <t>Tuesday March 04 2025</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr"/>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr"/>
       <c r="E710" t="inlineStr"/>
       <c r="F710" t="inlineStr"/>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>Sunday March 02 2025</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr"/>
+          <t>08:55 AM</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Redbook YoYMAR/01</t>
+        </is>
+      </c>
       <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr"/>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>6.2%</t>
+        </is>
+      </c>
       <c r="E711" t="inlineStr"/>
       <c r="F711" t="inlineStr"/>
-      <c r="G711" t="inlineStr"/>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>Monday March 03 2025</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexMAR</t>
+        </is>
+      </c>
       <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr"/>
-      <c r="E712" t="inlineStr"/>
-      <c r="F712" t="inlineStr"/>
-      <c r="G712" t="inlineStr"/>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>53.1</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalFEB</t>
+          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
         </is>
       </c>
       <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="D713" t="inlineStr"/>
       <c r="E713" t="inlineStr">
         <is>
-          <t>51.6</t>
-        </is>
-      </c>
-      <c r="F713" t="inlineStr">
-        <is>
-          <t>51.6</t>
-        </is>
-      </c>
+          <t>$50 million</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr"/>
       <c r="G713" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:20 PM</t>
         </is>
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIFEB</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr">
-        <is>
-          <t>50.9</t>
-        </is>
-      </c>
-      <c r="E714" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F714" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr"/>
       <c r="G714" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentFEB</t>
+          <t>API Crude Oil Stock ChangeFEB/28</t>
         </is>
       </c>
       <c r="C715" t="inlineStr"/>
       <c r="D715" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-0.640M</t>
         </is>
       </c>
       <c r="E715" t="inlineStr"/>
-      <c r="F715" t="inlineStr">
-        <is>
-          <t>50.6</t>
-        </is>
-      </c>
+      <c r="F715" t="inlineStr"/>
       <c r="G715" t="inlineStr">
         <is>
           <t>2</t>
@@ -19365,32 +19245,20 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A716" t="inlineStr"/>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Construction Spending MoMJAN</t>
+          <t>LMI Logistics Managers IndexFEB</t>
         </is>
       </c>
       <c r="C716" t="inlineStr"/>
       <c r="D716" t="inlineStr">
         <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E716" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F716" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr"/>
+      <c r="F716" t="inlineStr"/>
       <c r="G716" t="inlineStr">
         <is>
           <t>3</t>
@@ -19400,76 +19268,56 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersFEB</t>
-        </is>
-      </c>
+          <t>Wednesday March 05 2025</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr"/>
       <c r="C717" t="inlineStr"/>
-      <c r="D717" t="inlineStr">
-        <is>
-          <t>55.1</t>
-        </is>
-      </c>
+      <c r="D717" t="inlineStr"/>
       <c r="E717" t="inlineStr"/>
-      <c r="F717" t="inlineStr">
-        <is>
-          <t>55.4</t>
-        </is>
-      </c>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F717" t="inlineStr"/>
+      <c r="G717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesFEB</t>
+          <t>MBA 30-Year Mortgage RateFEB/28</t>
         </is>
       </c>
       <c r="C718" t="inlineStr"/>
       <c r="D718" t="inlineStr">
         <is>
-          <t>54.9</t>
+          <t>6.88%</t>
         </is>
       </c>
       <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
+      <c r="F718" t="inlineStr"/>
       <c r="G718" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>MBA Mortgage ApplicationsFEB/28</t>
         </is>
       </c>
       <c r="C719" t="inlineStr"/>
       <c r="D719" t="inlineStr">
         <is>
-          <t>4.195%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="E719" t="inlineStr"/>
@@ -19483,18 +19331,18 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>MBA Mortgage Market IndexFEB/28</t>
         </is>
       </c>
       <c r="C720" t="inlineStr"/>
       <c r="D720" t="inlineStr">
         <is>
-          <t>4.180%</t>
+          <t>212.3</t>
         </is>
       </c>
       <c r="E720" t="inlineStr"/>
@@ -19508,160 +19356,212 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>11:35 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>MBA Mortgage Refinance IndexFEB/28</t>
         </is>
       </c>
       <c r="C721" t="inlineStr"/>
-      <c r="D721" t="inlineStr"/>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>572.5</t>
+        </is>
+      </c>
       <c r="E721" t="inlineStr"/>
       <c r="F721" t="inlineStr"/>
       <c r="G721" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>Tuesday March 04 2025</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr"/>
+          <t>07:00 AM</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>MBA Purchase IndexFEB/28</t>
+        </is>
+      </c>
       <c r="C722" t="inlineStr"/>
-      <c r="D722" t="inlineStr"/>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>144.3</t>
+        </is>
+      </c>
       <c r="E722" t="inlineStr"/>
       <c r="F722" t="inlineStr"/>
-      <c r="G722" t="inlineStr"/>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Redbook YoYMAR/01</t>
+          <t>ADP Employment ChangeFEB</t>
         </is>
       </c>
       <c r="C723" t="inlineStr"/>
       <c r="D723" t="inlineStr">
         <is>
-          <t>6.2%</t>
-        </is>
-      </c>
-      <c r="E723" t="inlineStr"/>
-      <c r="F723" t="inlineStr"/>
+          <t>183K</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>160.0K</t>
+        </is>
+      </c>
       <c r="G723" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexMAR</t>
+          <t>S&amp;P Global Composite PMI FinalFEB</t>
         </is>
       </c>
       <c r="C724" t="inlineStr"/>
       <c r="D724" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>52.7</t>
         </is>
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>53.1</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="F724" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>50.4</t>
         </is>
       </c>
       <c r="G724" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:45 AM</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 6 to 10 yrs</t>
+          <t>S&amp;P Global Services PMI FinalFEB</t>
         </is>
       </c>
       <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr"/>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>52.9</t>
+        </is>
+      </c>
       <c r="E725" t="inlineStr">
         <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F725" t="inlineStr"/>
+          <t>49.7</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
       <c r="G725" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>02:20 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>ISM Services PMIFEB</t>
         </is>
       </c>
       <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr"/>
-      <c r="E726" t="inlineStr"/>
-      <c r="F726" t="inlineStr"/>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>52.8</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>52.7</t>
+        </is>
+      </c>
       <c r="G726" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/28</t>
+          <t>Factory Orders MoMJAN</t>
         </is>
       </c>
       <c r="C727" t="inlineStr"/>
       <c r="D727" t="inlineStr">
         <is>
-          <t>-0.640M</t>
-        </is>
-      </c>
-      <c r="E727" t="inlineStr"/>
-      <c r="F727" t="inlineStr"/>
+          <t>-0.9%</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>1.5%</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G727" t="inlineStr">
         <is>
           <t>2</t>
@@ -19669,20 +19569,28 @@
       </c>
     </row>
     <row r="728">
-      <c r="A728" t="inlineStr"/>
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>10:00 AM</t>
+        </is>
+      </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>LMI Logistics Managers IndexFEB</t>
+          <t>Factory Orders ex TransportationJAN</t>
         </is>
       </c>
       <c r="C728" t="inlineStr"/>
       <c r="D728" t="inlineStr">
         <is>
-          <t>62.0</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E728" t="inlineStr"/>
-      <c r="F728" t="inlineStr"/>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G728" t="inlineStr">
         <is>
           <t>3</t>
@@ -19692,60 +19600,84 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Wednesday March 05 2025</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr"/>
+          <t>10:00 AM</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>ISM Services Business ActivityFEB</t>
+        </is>
+      </c>
       <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr"/>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>54.5</t>
+        </is>
+      </c>
       <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr"/>
-      <c r="G729" t="inlineStr"/>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>54.2</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/28</t>
+          <t>ISM Services EmploymentFEB</t>
         </is>
       </c>
       <c r="C730" t="inlineStr"/>
       <c r="D730" t="inlineStr">
         <is>
-          <t>6.88%</t>
+          <t>52.3</t>
         </is>
       </c>
       <c r="E730" t="inlineStr"/>
-      <c r="F730" t="inlineStr"/>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>52.1</t>
+        </is>
+      </c>
       <c r="G730" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/28</t>
+          <t>ISM Services New OrdersFEB</t>
         </is>
       </c>
       <c r="C731" t="inlineStr"/>
       <c r="D731" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>51.3</t>
         </is>
       </c>
       <c r="E731" t="inlineStr"/>
-      <c r="F731" t="inlineStr"/>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
       <c r="G731" t="inlineStr">
         <is>
           <t>3</t>
@@ -19755,22 +19687,26 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexFEB/28</t>
+          <t>ISM Services PricesFEB</t>
         </is>
       </c>
       <c r="C732" t="inlineStr"/>
       <c r="D732" t="inlineStr">
         <is>
-          <t>212.3</t>
+          <t>60.4</t>
         </is>
       </c>
       <c r="E732" t="inlineStr"/>
-      <c r="F732" t="inlineStr"/>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>60.6</t>
+        </is>
+      </c>
       <c r="G732" t="inlineStr">
         <is>
           <t>3</t>
@@ -19780,241 +19716,197 @@
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexFEB/28</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/28</t>
         </is>
       </c>
       <c r="C733" t="inlineStr"/>
       <c r="D733" t="inlineStr">
         <is>
-          <t>572.5</t>
+          <t>-2.332M</t>
         </is>
       </c>
       <c r="E733" t="inlineStr"/>
       <c r="F733" t="inlineStr"/>
       <c r="G733" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexFEB/28</t>
+          <t>EIA Gasoline Stocks ChangeFEB/28</t>
         </is>
       </c>
       <c r="C734" t="inlineStr"/>
       <c r="D734" t="inlineStr">
         <is>
-          <t>144.3</t>
+          <t>0.369M</t>
         </is>
       </c>
       <c r="E734" t="inlineStr"/>
       <c r="F734" t="inlineStr"/>
       <c r="G734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeFEB</t>
+          <t>EIA Crude Oil Imports ChangeFEB/28</t>
         </is>
       </c>
       <c r="C735" t="inlineStr"/>
       <c r="D735" t="inlineStr">
         <is>
-          <t>183K</t>
-        </is>
-      </c>
-      <c r="E735" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="F735" t="inlineStr">
-        <is>
-          <t>160.0K</t>
-        </is>
-      </c>
+          <t>0.292M</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr"/>
+      <c r="F735" t="inlineStr"/>
       <c r="G735" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FinalFEB</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/28</t>
         </is>
       </c>
       <c r="C736" t="inlineStr"/>
       <c r="D736" t="inlineStr">
         <is>
-          <t>52.7</t>
-        </is>
-      </c>
-      <c r="E736" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
-      <c r="F736" t="inlineStr">
-        <is>
-          <t>50.4</t>
-        </is>
-      </c>
+          <t>1.282M</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr"/>
+      <c r="F736" t="inlineStr"/>
       <c r="G736" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>09:45 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FinalFEB</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/28</t>
         </is>
       </c>
       <c r="C737" t="inlineStr"/>
       <c r="D737" t="inlineStr">
         <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E737" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
-      <c r="F737" t="inlineStr">
-        <is>
-          <t>49.7</t>
-        </is>
-      </c>
+          <t>0.439M</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr"/>
+      <c r="F737" t="inlineStr"/>
       <c r="G737" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>ISM Services PMIFEB</t>
+          <t>EIA Distillate Stocks ChangeFEB/28</t>
         </is>
       </c>
       <c r="C738" t="inlineStr"/>
       <c r="D738" t="inlineStr">
         <is>
-          <t>52.8</t>
-        </is>
-      </c>
-      <c r="E738" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="F738" t="inlineStr">
-        <is>
-          <t>52.7</t>
-        </is>
-      </c>
+          <t>3.908M</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr"/>
+      <c r="F738" t="inlineStr"/>
       <c r="G738" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Factory Orders MoMJAN</t>
+          <t>EIA Gasoline Production ChangeFEB/28</t>
         </is>
       </c>
       <c r="C739" t="inlineStr"/>
       <c r="D739" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E739" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="F739" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+          <t>-0.02M</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr"/>
+      <c r="F739" t="inlineStr"/>
       <c r="G739" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationJAN</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/28</t>
         </is>
       </c>
       <c r="C740" t="inlineStr"/>
       <c r="D740" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.134M</t>
         </is>
       </c>
       <c r="E740" t="inlineStr"/>
-      <c r="F740" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F740" t="inlineStr"/>
       <c r="G740" t="inlineStr">
         <is>
           <t>3</t>
@@ -20024,26 +19916,22 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>ISM Services Business ActivityFEB</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/28</t>
         </is>
       </c>
       <c r="C741" t="inlineStr"/>
       <c r="D741" t="inlineStr">
         <is>
-          <t>54.5</t>
+          <t>0.317M</t>
         </is>
       </c>
       <c r="E741" t="inlineStr"/>
-      <c r="F741" t="inlineStr">
-        <is>
-          <t>54.2</t>
-        </is>
-      </c>
+      <c r="F741" t="inlineStr"/>
       <c r="G741" t="inlineStr">
         <is>
           <t>3</t>
@@ -20053,26 +19941,22 @@
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>ISM Services EmploymentFEB</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C742" t="inlineStr"/>
       <c r="D742" t="inlineStr">
         <is>
-          <t>52.3</t>
+          <t>4.200%</t>
         </is>
       </c>
       <c r="E742" t="inlineStr"/>
-      <c r="F742" t="inlineStr">
-        <is>
-          <t>52.1</t>
-        </is>
-      </c>
+      <c r="F742" t="inlineStr"/>
       <c r="G742" t="inlineStr">
         <is>
           <t>3</t>
@@ -20082,26 +19966,18 @@
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>ISM Services New OrdersFEB</t>
+          <t>Fed Beige Book</t>
         </is>
       </c>
       <c r="C743" t="inlineStr"/>
-      <c r="D743" t="inlineStr">
-        <is>
-          <t>51.3</t>
-        </is>
-      </c>
+      <c r="D743" t="inlineStr"/>
       <c r="E743" t="inlineStr"/>
-      <c r="F743" t="inlineStr">
-        <is>
-          <t>51.2</t>
-        </is>
-      </c>
+      <c r="F743" t="inlineStr"/>
       <c r="G743" t="inlineStr">
         <is>
           <t>3</t>
@@ -20109,28 +19985,20 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
+      <c r="A744" t="inlineStr"/>
       <c r="B744" t="inlineStr">
         <is>
-          <t>ISM Services PricesFEB</t>
+          <t>Total Vehicle SalesFEB</t>
         </is>
       </c>
       <c r="C744" t="inlineStr"/>
       <c r="D744" t="inlineStr">
         <is>
-          <t>60.4</t>
+          <t>15.6M</t>
         </is>
       </c>
       <c r="E744" t="inlineStr"/>
-      <c r="F744" t="inlineStr">
-        <is>
-          <t>60.6</t>
-        </is>
-      </c>
+      <c r="F744" t="inlineStr"/>
       <c r="G744" t="inlineStr">
         <is>
           <t>3</t>
@@ -20140,172 +20008,188 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B745" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/28</t>
-        </is>
-      </c>
+          <t>Thursday March 06 2025</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr"/>
       <c r="C745" t="inlineStr"/>
-      <c r="D745" t="inlineStr">
-        <is>
-          <t>-2.332M</t>
-        </is>
-      </c>
+      <c r="D745" t="inlineStr"/>
       <c r="E745" t="inlineStr"/>
       <c r="F745" t="inlineStr"/>
-      <c r="G745" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeFEB/28</t>
+          <t>Challenger Job CutsFEB</t>
         </is>
       </c>
       <c r="C746" t="inlineStr"/>
       <c r="D746" t="inlineStr">
         <is>
-          <t>0.369M</t>
+          <t>49.795K</t>
         </is>
       </c>
       <c r="E746" t="inlineStr"/>
-      <c r="F746" t="inlineStr"/>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>56.0K</t>
+        </is>
+      </c>
       <c r="G746" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeFEB/28</t>
+          <t>Balance of TradeJAN</t>
         </is>
       </c>
       <c r="C747" t="inlineStr"/>
       <c r="D747" t="inlineStr">
         <is>
-          <t>0.292M</t>
+          <t>$-98.4B</t>
         </is>
       </c>
       <c r="E747" t="inlineStr"/>
-      <c r="F747" t="inlineStr"/>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>$-123B</t>
+        </is>
+      </c>
       <c r="G747" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/28</t>
+          <t>ExportsJAN</t>
         </is>
       </c>
       <c r="C748" t="inlineStr"/>
       <c r="D748" t="inlineStr">
         <is>
-          <t>1.282M</t>
+          <t>$266.5B</t>
         </is>
       </c>
       <c r="E748" t="inlineStr"/>
-      <c r="F748" t="inlineStr"/>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>$273.0B</t>
+        </is>
+      </c>
       <c r="G748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/28</t>
+          <t>ImportsJAN</t>
         </is>
       </c>
       <c r="C749" t="inlineStr"/>
       <c r="D749" t="inlineStr">
         <is>
-          <t>0.439M</t>
+          <t>$364.9B</t>
         </is>
       </c>
       <c r="E749" t="inlineStr"/>
-      <c r="F749" t="inlineStr"/>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>$396.0B</t>
+        </is>
+      </c>
       <c r="G749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeFEB/28</t>
+          <t>Initial Jobless ClaimsMAR/01</t>
         </is>
       </c>
       <c r="C750" t="inlineStr"/>
       <c r="D750" t="inlineStr">
         <is>
-          <t>3.908M</t>
-        </is>
-      </c>
-      <c r="E750" t="inlineStr"/>
-      <c r="F750" t="inlineStr"/>
+          <t>242K</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>340K</t>
+        </is>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>250.0K</t>
+        </is>
+      </c>
       <c r="G750" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeFEB/28</t>
+          <t>Continuing Jobless ClaimsFEB/22</t>
         </is>
       </c>
       <c r="C751" t="inlineStr"/>
       <c r="D751" t="inlineStr">
         <is>
-          <t>-0.02M</t>
+          <t>1862K</t>
         </is>
       </c>
       <c r="E751" t="inlineStr"/>
-      <c r="F751" t="inlineStr"/>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>1870.0K</t>
+        </is>
+      </c>
       <c r="G751" t="inlineStr">
         <is>
           <t>3</t>
@@ -20315,22 +20199,26 @@
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/28</t>
+          <t>Jobless Claims 4-week AverageMAR/01</t>
         </is>
       </c>
       <c r="C752" t="inlineStr"/>
       <c r="D752" t="inlineStr">
         <is>
-          <t>0.134M</t>
+          <t>224K</t>
         </is>
       </c>
       <c r="E752" t="inlineStr"/>
-      <c r="F752" t="inlineStr"/>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>226.0K</t>
+        </is>
+      </c>
       <c r="G752" t="inlineStr">
         <is>
           <t>3</t>
@@ -20340,22 +20228,30 @@
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/28</t>
+          <t>Nonfarm Productivity QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C753" t="inlineStr"/>
       <c r="D753" t="inlineStr">
         <is>
-          <t>0.317M</t>
-        </is>
-      </c>
-      <c r="E753" t="inlineStr"/>
-      <c r="F753" t="inlineStr"/>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>1.2%</t>
+        </is>
+      </c>
       <c r="G753" t="inlineStr">
         <is>
           <t>3</t>
@@ -20365,22 +20261,30 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Unit Labour Costs QoQ FinalQ4</t>
         </is>
       </c>
       <c r="C754" t="inlineStr"/>
       <c r="D754" t="inlineStr">
         <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E754" t="inlineStr"/>
-      <c r="F754" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="G754" t="inlineStr">
         <is>
           <t>3</t>
@@ -20390,18 +20294,26 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Fed Beige Book</t>
+          <t>Wholesale Inventories MoMJAN</t>
         </is>
       </c>
       <c r="C755" t="inlineStr"/>
-      <c r="D755" t="inlineStr"/>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="E755" t="inlineStr"/>
-      <c r="F755" t="inlineStr"/>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="G755" t="inlineStr">
         <is>
           <t>3</t>
@@ -20409,16 +20321,20 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" t="inlineStr"/>
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>10:30 AM</t>
+        </is>
+      </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Total Vehicle SalesFEB</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/28</t>
         </is>
       </c>
       <c r="C756" t="inlineStr"/>
       <c r="D756" t="inlineStr">
         <is>
-          <t>15.6M</t>
+          <t>-261Bcf</t>
         </is>
       </c>
       <c r="E756" t="inlineStr"/>
@@ -20432,39 +20348,47 @@
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>Thursday March 06 2025</t>
-        </is>
-      </c>
-      <c r="B757" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C757" t="inlineStr"/>
-      <c r="D757" t="inlineStr"/>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
       <c r="E757" t="inlineStr"/>
       <c r="F757" t="inlineStr"/>
-      <c r="G757" t="inlineStr"/>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Challenger Job CutsFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C758" t="inlineStr"/>
       <c r="D758" t="inlineStr">
         <is>
-          <t>49.795K</t>
+          <t>4.235%</t>
         </is>
       </c>
       <c r="E758" t="inlineStr"/>
-      <c r="F758" t="inlineStr">
-        <is>
-          <t>56.0K</t>
-        </is>
-      </c>
+      <c r="F758" t="inlineStr"/>
       <c r="G758" t="inlineStr">
         <is>
           <t>3</t>
@@ -20474,84 +20398,68 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Balance of TradeJAN</t>
+          <t>15-Year Mortgage RateMAR/06</t>
         </is>
       </c>
       <c r="C759" t="inlineStr"/>
       <c r="D759" t="inlineStr">
         <is>
-          <t>$-98.4B</t>
+          <t>5.94%</t>
         </is>
       </c>
       <c r="E759" t="inlineStr"/>
-      <c r="F759" t="inlineStr">
-        <is>
-          <t>$-123B</t>
-        </is>
-      </c>
+      <c r="F759" t="inlineStr"/>
       <c r="G759" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>ExportsJAN</t>
+          <t>30-Year Mortgage RateMAR/06</t>
         </is>
       </c>
       <c r="C760" t="inlineStr"/>
       <c r="D760" t="inlineStr">
         <is>
-          <t>$266.5B</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E760" t="inlineStr"/>
-      <c r="F760" t="inlineStr">
-        <is>
-          <t>$273.0B</t>
-        </is>
-      </c>
+      <c r="F760" t="inlineStr"/>
       <c r="G760" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>ImportsJAN</t>
+          <t>Fed Waller Speech</t>
         </is>
       </c>
       <c r="C761" t="inlineStr"/>
-      <c r="D761" t="inlineStr">
-        <is>
-          <t>$364.9B</t>
-        </is>
-      </c>
+      <c r="D761" t="inlineStr"/>
       <c r="E761" t="inlineStr"/>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>$396.0B</t>
-        </is>
-      </c>
+      <c r="F761" t="inlineStr"/>
       <c r="G761" t="inlineStr">
         <is>
           <t>2</t>
@@ -20561,93 +20469,61 @@
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAR/01</t>
+          <t>Fed Balance SheetMAR/05</t>
         </is>
       </c>
       <c r="C762" t="inlineStr"/>
       <c r="D762" t="inlineStr">
         <is>
-          <t>242K</t>
-        </is>
-      </c>
-      <c r="E762" t="inlineStr">
-        <is>
-          <t>340K</t>
-        </is>
-      </c>
-      <c r="F762" t="inlineStr">
-        <is>
-          <t>250.0K</t>
-        </is>
-      </c>
+          <t>$6.77T</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr"/>
+      <c r="F762" t="inlineStr"/>
       <c r="G762" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsFEB/22</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C763" t="inlineStr"/>
-      <c r="D763" t="inlineStr">
-        <is>
-          <t>1862K</t>
-        </is>
-      </c>
+      <c r="D763" t="inlineStr"/>
       <c r="E763" t="inlineStr"/>
-      <c r="F763" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
+      <c r="F763" t="inlineStr"/>
       <c r="G763" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B764" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/01</t>
-        </is>
-      </c>
+          <t>Friday March 07 2025</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr"/>
       <c r="C764" t="inlineStr"/>
-      <c r="D764" t="inlineStr">
-        <is>
-          <t>224K</t>
-        </is>
-      </c>
+      <c r="D764" t="inlineStr"/>
       <c r="E764" t="inlineStr"/>
-      <c r="F764" t="inlineStr">
-        <is>
-          <t>226.0K</t>
-        </is>
-      </c>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F764" t="inlineStr"/>
+      <c r="G764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
@@ -20657,28 +20533,28 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Nonfarm Productivity QoQ FinalQ4</t>
+          <t>Non Farm PayrollsFEB</t>
         </is>
       </c>
       <c r="C765" t="inlineStr"/>
       <c r="D765" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>143K</t>
         </is>
       </c>
       <c r="E765" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>133K</t>
         </is>
       </c>
       <c r="F765" t="inlineStr">
         <is>
-          <t>1.2%</t>
+          <t>150.0K</t>
         </is>
       </c>
       <c r="G765" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -20690,129 +20566,153 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Unit Labour Costs QoQ FinalQ4</t>
+          <t>Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C766" t="inlineStr"/>
       <c r="D766" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E766" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="F766" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>4.0%</t>
         </is>
       </c>
       <c r="G766" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMJAN</t>
+          <t>Average Hourly Earnings MoMFEB</t>
         </is>
       </c>
       <c r="C767" t="inlineStr"/>
       <c r="D767" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E767" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F767" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G767" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/28</t>
+          <t>Average Hourly Earnings YoYFEB</t>
         </is>
       </c>
       <c r="C768" t="inlineStr"/>
       <c r="D768" t="inlineStr">
         <is>
-          <t>-261Bcf</t>
-        </is>
-      </c>
-      <c r="E768" t="inlineStr"/>
-      <c r="F768" t="inlineStr"/>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
       <c r="G768" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Participation RateFEB</t>
         </is>
       </c>
       <c r="C769" t="inlineStr"/>
       <c r="D769" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>62.6%</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
-      <c r="F769" t="inlineStr"/>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>62.6%</t>
+        </is>
+      </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Average Weekly HoursFEB</t>
         </is>
       </c>
       <c r="C770" t="inlineStr"/>
       <c r="D770" t="inlineStr">
         <is>
-          <t>4.235%</t>
-        </is>
-      </c>
-      <c r="E770" t="inlineStr"/>
-      <c r="F770" t="inlineStr"/>
+          <t>34.1</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>34.1</t>
+        </is>
+      </c>
       <c r="G770" t="inlineStr">
         <is>
           <t>3</t>
@@ -20822,22 +20722,26 @@
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAR/06</t>
+          <t>Government PayrollsFEB</t>
         </is>
       </c>
       <c r="C771" t="inlineStr"/>
       <c r="D771" t="inlineStr">
         <is>
-          <t>5.94%</t>
+          <t>32K</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
-      <c r="F771" t="inlineStr"/>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>-20.0K</t>
+        </is>
+      </c>
       <c r="G771" t="inlineStr">
         <is>
           <t>3</t>
@@ -20847,22 +20751,26 @@
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAR/06</t>
+          <t>Manufacturing PayrollsFEB</t>
         </is>
       </c>
       <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>3K</t>
         </is>
       </c>
       <c r="E772" t="inlineStr"/>
-      <c r="F772" t="inlineStr"/>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>6.0K</t>
+        </is>
+      </c>
       <c r="G772" t="inlineStr">
         <is>
           <t>3</t>
@@ -20872,43 +20780,59 @@
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>Nonfarm Payrolls PrivateFEB</t>
         </is>
       </c>
       <c r="C773" t="inlineStr"/>
-      <c r="D773" t="inlineStr"/>
-      <c r="E773" t="inlineStr"/>
-      <c r="F773" t="inlineStr"/>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>111K</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>108K</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>170.0K</t>
+        </is>
+      </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/05</t>
+          <t>U-6 Unemployment RateFEB</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
       <c r="D774" t="inlineStr">
         <is>
-          <t>$6.77T</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="E774" t="inlineStr"/>
-      <c r="F774" t="inlineStr"/>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>7.6%</t>
+        </is>
+      </c>
       <c r="G774" t="inlineStr">
         <is>
           <t>3</t>
@@ -20918,12 +20842,12 @@
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:15 AM</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
@@ -20939,76 +20863,60 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>Friday March 07 2025</t>
-        </is>
-      </c>
-      <c r="B776" t="inlineStr"/>
+          <t>10:45 AM</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Fed Williams Speech</t>
+        </is>
+      </c>
       <c r="C776" t="inlineStr"/>
       <c r="D776" t="inlineStr"/>
       <c r="E776" t="inlineStr"/>
       <c r="F776" t="inlineStr"/>
-      <c r="G776" t="inlineStr"/>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:20 PM</t>
         </is>
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsFEB</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr">
-        <is>
-          <t>143K</t>
-        </is>
-      </c>
-      <c r="E777" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>150.0K</t>
-        </is>
-      </c>
+      <c r="D777" t="inlineStr"/>
+      <c r="E777" t="inlineStr"/>
+      <c r="F777" t="inlineStr"/>
       <c r="G777" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:30 PM</t>
         </is>
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Unemployment RateFEB</t>
+          <t>Fed Chair Powell Speech</t>
         </is>
       </c>
       <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
+      <c r="D778" t="inlineStr"/>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr"/>
       <c r="G778" t="inlineStr">
         <is>
           <t>1</t>
@@ -21018,30 +20926,18 @@
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMFEB</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E779" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D779" t="inlineStr"/>
+      <c r="E779" t="inlineStr"/>
+      <c r="F779" t="inlineStr"/>
       <c r="G779" t="inlineStr">
         <is>
           <t>2</t>
@@ -21051,90 +20947,78 @@
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYFEB</t>
+          <t>Baker Hughes Oil Rig CountMAR/07</t>
         </is>
       </c>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E780" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F780" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr"/>
+      <c r="F780" t="inlineStr"/>
       <c r="G780" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Participation RateFEB</t>
+          <t>Baker Hughes Total Rigs CountMAR/07</t>
         </is>
       </c>
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>62.6%</t>
+          <t>593</t>
         </is>
       </c>
       <c r="E781" t="inlineStr"/>
-      <c r="F781" t="inlineStr">
-        <is>
-          <t>62.6%</t>
-        </is>
-      </c>
+      <c r="F781" t="inlineStr"/>
       <c r="G781" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Average Weekly HoursFEB</t>
+          <t>Consumer Credit ChangeJAN</t>
         </is>
       </c>
       <c r="C782" t="inlineStr"/>
       <c r="D782" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>$40.85B</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>$15.5B</t>
         </is>
       </c>
       <c r="F782" t="inlineStr">
         <is>
-          <t>34.1</t>
+          <t>$ -3.0B</t>
         </is>
       </c>
       <c r="G782" t="inlineStr">
@@ -21144,28 +21028,20 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A783" t="inlineStr"/>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Government PayrollsFEB</t>
+          <t>Used Car Prices MoMFEB</t>
         </is>
       </c>
       <c r="C783" t="inlineStr"/>
       <c r="D783" t="inlineStr">
         <is>
-          <t>32K</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E783" t="inlineStr"/>
-      <c r="F783" t="inlineStr">
-        <is>
-          <t>-20.0K</t>
-        </is>
-      </c>
+      <c r="F783" t="inlineStr"/>
       <c r="G783" t="inlineStr">
         <is>
           <t>3</t>
@@ -21173,28 +21049,20 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A784" t="inlineStr"/>
       <c r="B784" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsFEB</t>
+          <t>Used Car Prices YoYFEB</t>
         </is>
       </c>
       <c r="C784" t="inlineStr"/>
       <c r="D784" t="inlineStr">
         <is>
-          <t>3K</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E784" t="inlineStr"/>
-      <c r="F784" t="inlineStr">
-        <is>
-          <t>6.0K</t>
-        </is>
-      </c>
+      <c r="F784" t="inlineStr"/>
       <c r="G784" t="inlineStr">
         <is>
           <t>3</t>
@@ -21204,116 +21072,80 @@
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateFEB</t>
-        </is>
-      </c>
+          <t>Saturday March 08 2025</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr"/>
       <c r="C785" t="inlineStr"/>
-      <c r="D785" t="inlineStr">
-        <is>
-          <t>111K</t>
-        </is>
-      </c>
-      <c r="E785" t="inlineStr">
-        <is>
-          <t>108K</t>
-        </is>
-      </c>
-      <c r="F785" t="inlineStr">
-        <is>
-          <t>170.0K</t>
-        </is>
-      </c>
-      <c r="G785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D785" t="inlineStr"/>
+      <c r="E785" t="inlineStr"/>
+      <c r="F785" t="inlineStr"/>
+      <c r="G785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B786" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateFEB</t>
-        </is>
-      </c>
+          <t>Sunday March 09 2025</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr"/>
       <c r="C786" t="inlineStr"/>
-      <c r="D786" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="D786" t="inlineStr"/>
       <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr">
-        <is>
-          <t>7.6%</t>
-        </is>
-      </c>
-      <c r="G786" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F786" t="inlineStr"/>
+      <c r="G786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>10:15 AM</t>
-        </is>
-      </c>
-      <c r="B787" t="inlineStr">
-        <is>
-          <t>Fed Bowman Speech</t>
-        </is>
-      </c>
+          <t>Monday March 10 2025</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr"/>
       <c r="C787" t="inlineStr"/>
       <c r="D787" t="inlineStr"/>
       <c r="E787" t="inlineStr"/>
       <c r="F787" t="inlineStr"/>
-      <c r="G787" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G787" t="inlineStr"/>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>10:45 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Consumer Inflation ExpectationsFEB</t>
         </is>
       </c>
       <c r="C788" t="inlineStr"/>
-      <c r="D788" t="inlineStr"/>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="E788" t="inlineStr"/>
-      <c r="F788" t="inlineStr"/>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="G788" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>12:20 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C789" t="inlineStr"/>
@@ -21322,19 +21154,19 @@
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>12:30 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Fed Chair Powell Speech</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C790" t="inlineStr"/>
@@ -21343,278 +21175,22 @@
       <c r="F790" t="inlineStr"/>
       <c r="G790" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>Fed Kugler Speech</t>
-        </is>
-      </c>
+          <t>Tuesday March 11 2025</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr"/>
       <c r="C791" t="inlineStr"/>
       <c r="D791" t="inlineStr"/>
       <c r="E791" t="inlineStr"/>
       <c r="F791" t="inlineStr"/>
-      <c r="G791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B792" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C792" t="inlineStr"/>
-      <c r="D792" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
-      <c r="G792" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/07</t>
-        </is>
-      </c>
-      <c r="C793" t="inlineStr"/>
-      <c r="D793" t="inlineStr">
-        <is>
-          <t>593</t>
-        </is>
-      </c>
-      <c r="E793" t="inlineStr"/>
-      <c r="F793" t="inlineStr"/>
-      <c r="G793" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B794" t="inlineStr">
-        <is>
-          <t>Consumer Credit ChangeJAN</t>
-        </is>
-      </c>
-      <c r="C794" t="inlineStr"/>
-      <c r="D794" t="inlineStr">
-        <is>
-          <t>$40.85B</t>
-        </is>
-      </c>
-      <c r="E794" t="inlineStr">
-        <is>
-          <t>$15.5B</t>
-        </is>
-      </c>
-      <c r="F794" t="inlineStr">
-        <is>
-          <t>$ -3.0B</t>
-        </is>
-      </c>
-      <c r="G794" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="795">
-      <c r="A795" t="inlineStr"/>
-      <c r="B795" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C795" t="inlineStr"/>
-      <c r="D795" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E795" t="inlineStr"/>
-      <c r="F795" t="inlineStr"/>
-      <c r="G795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="796">
-      <c r="A796" t="inlineStr"/>
-      <c r="B796" t="inlineStr">
-        <is>
-          <t>Used Car Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C796" t="inlineStr"/>
-      <c r="D796" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E796" t="inlineStr"/>
-      <c r="F796" t="inlineStr"/>
-      <c r="G796" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>Saturday March 08 2025</t>
-        </is>
-      </c>
-      <c r="B797" t="inlineStr"/>
-      <c r="C797" t="inlineStr"/>
-      <c r="D797" t="inlineStr"/>
-      <c r="E797" t="inlineStr"/>
-      <c r="F797" t="inlineStr"/>
-      <c r="G797" t="inlineStr"/>
-    </row>
-    <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>Sunday March 09 2025</t>
-        </is>
-      </c>
-      <c r="B798" t="inlineStr"/>
-      <c r="C798" t="inlineStr"/>
-      <c r="D798" t="inlineStr"/>
-      <c r="E798" t="inlineStr"/>
-      <c r="F798" t="inlineStr"/>
-      <c r="G798" t="inlineStr"/>
-    </row>
-    <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>Monday March 10 2025</t>
-        </is>
-      </c>
-      <c r="B799" t="inlineStr"/>
-      <c r="C799" t="inlineStr"/>
-      <c r="D799" t="inlineStr"/>
-      <c r="E799" t="inlineStr"/>
-      <c r="F799" t="inlineStr"/>
-      <c r="G799" t="inlineStr"/>
-    </row>
-    <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B800" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsFEB</t>
-        </is>
-      </c>
-      <c r="C800" t="inlineStr"/>
-      <c r="D800" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E800" t="inlineStr"/>
-      <c r="F800" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B801" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C801" t="inlineStr"/>
-      <c r="D801" t="inlineStr"/>
-      <c r="E801" t="inlineStr"/>
-      <c r="F801" t="inlineStr"/>
-      <c r="G801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B802" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr"/>
-      <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr"/>
-      <c r="G802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>Tuesday March 11 2025</t>
-        </is>
-      </c>
-      <c r="B803" t="inlineStr"/>
-      <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr"/>
-      <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr"/>
-      <c r="G803" t="inlineStr"/>
+      <c r="G791" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
